--- a/data/hotels_by_city/Dallas/Dallas_shard_562.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_562.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,237 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r371606361-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>223632</t>
+  </si>
+  <si>
+    <t>371606361</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Truth in Advertising..... Do Not Take Children to this Place</t>
+  </si>
+  <si>
+    <t>I am not a goody goody, in fact I worked in the adult field most of my life but I am first and foremost a mother and Grandmother.  I rented a room at the motel 6 that was considered the suite,  yes it is alot larger than the usual motel 6 rooms.  When I went to check in they told me the AC was broke down but getting fixed.  8 days and it was never fixed!  
+I told them 3 times not to give my key to anyone including my son,  and my key was given out 3 times!  I nearly had a heat stroke one night and had to go to another hotel,  I had alot of stuff with me and it was taking me alittle while to geet it loaded and the desk clerk demanded it be gone right away... within 30 minutes....they sure didnt rush to fix ac.
+big flashing sign in the front says POOL,  your not allowed to use the pooll  The other suite is rented out by the hour,  Baggies are all over the ground, the grass is not kept cut.    Partying all night in the courtyard.
+Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen...I am not a goody goody, in fact I worked in the adult field most of my life but I am first and foremost a mother and Grandmother.  I rented a room at the motel 6 that was considered the suite,  yes it is alot larger than the usual motel 6 rooms.  When I went to check in they told me the AC was broke down but getting fixed.  8 days and it was never fixed!  I told them 3 times not to give my key to anyone including my son,  and my key was given out 3 times!  I nearly had a heat stroke one night and had to go to another hotel,  I had alot of stuff with me and it was taking me alittle while to geet it loaded and the desk clerk demanded it be gone right away... within 30 minutes....they sure didnt rush to fix ac.big flashing sign in the front says POOL,  your not allowed to use the pooll  The other suite is rented out by the hour,  Baggies are all over the ground, the grass is not kept cut.    Partying all night in the courtyard.Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen   candy on top.... I videoed.  A man busted a beer bottle on the stairs and the glass sat there with me telling the maid 3 times for 2 hours... I finally cleaned it up.  Water was off for 2 days and then not hot,  My laptop was stolen there, my sons bike, andmy pillows were thrown in the trashMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I am not a goody goody, in fact I worked in the adult field most of my life but I am first and foremost a mother and Grandmother.  I rented a room at the motel 6 that was considered the suite,  yes it is alot larger than the usual motel 6 rooms.  When I went to check in they told me the AC was broke down but getting fixed.  8 days and it was never fixed!  
+I told them 3 times not to give my key to anyone including my son,  and my key was given out 3 times!  I nearly had a heat stroke one night and had to go to another hotel,  I had alot of stuff with me and it was taking me alittle while to geet it loaded and the desk clerk demanded it be gone right away... within 30 minutes....they sure didnt rush to fix ac.
+big flashing sign in the front says POOL,  your not allowed to use the pooll  The other suite is rented out by the hour,  Baggies are all over the ground, the grass is not kept cut.    Partying all night in the courtyard.
+Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen...I am not a goody goody, in fact I worked in the adult field most of my life but I am first and foremost a mother and Grandmother.  I rented a room at the motel 6 that was considered the suite,  yes it is alot larger than the usual motel 6 rooms.  When I went to check in they told me the AC was broke down but getting fixed.  8 days and it was never fixed!  I told them 3 times not to give my key to anyone including my son,  and my key was given out 3 times!  I nearly had a heat stroke one night and had to go to another hotel,  I had alot of stuff with me and it was taking me alittle while to geet it loaded and the desk clerk demanded it be gone right away... within 30 minutes....they sure didnt rush to fix ac.big flashing sign in the front says POOL,  your not allowed to use the pooll  The other suite is rented out by the hour,  Baggies are all over the ground, the grass is not kept cut.    Partying all night in the courtyard.Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen   candy on top.... I videoed.  A man busted a beer bottle on the stairs and the glass sat there with me telling the maid 3 times for 2 hours... I finally cleaned it up.  Water was off for 2 days and then not hot,  My laptop was stolen there, my sons bike, andmy pillows were thrown in the trashMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r363608227-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>363608227</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>DON'T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had to go to the front desk and ask for towels, wash cloths, and pillow cases.  The desk clerk was very nice and helpful. There are vending machines. TV works and the Wi-Fi is iffy.  There was plenty of parking. We will not be back.  Wife would rather sleep in the car. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r362047980-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>362047980</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here if you have any other choice (unless you are dealing drugs)</t>
+  </si>
+  <si>
+    <t>The lobby, hall, elevator and room were very poorly maintained.  There was only 1 luggage cart and it was no where to be found upon move in.  The vending machines were out of order (I don't use them, but if they are there for the guests convenience, it is not very convenient if they don't work.  The drapes were hanging by only half their hooks.  The bathroom had two locations for toilet paper only one of which had a roll on it, with no extra roll anywhere in the room.  The facial tissue dispenser had no box of tissue in it.  The vanity had been painted (over the man made marble) and much of the paint was randomly scratched off.  The neighborhood is very scary.  We worried about our cars in the parking lot.  My daughter was approached while standing by her vehicle and asked if she wanted to purchase a laptop or a tablet!  There was a lot of vagrant type foot traffic in the parking lot - people wandering around without any seeming purpose.  The police were actually called on one man who was surveying the cars in the parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>The lobby, hall, elevator and room were very poorly maintained.  There was only 1 luggage cart and it was no where to be found upon move in.  The vending machines were out of order (I don't use them, but if they are there for the guests convenience, it is not very convenient if they don't work.  The drapes were hanging by only half their hooks.  The bathroom had two locations for toilet paper only one of which had a roll on it, with no extra roll anywhere in the room.  The facial tissue dispenser had no box of tissue in it.  The vanity had been painted (over the man made marble) and much of the paint was randomly scratched off.  The neighborhood is very scary.  We worried about our cars in the parking lot.  My daughter was approached while standing by her vehicle and asked if she wanted to purchase a laptop or a tablet!  There was a lot of vagrant type foot traffic in the parking lot - people wandering around without any seeming purpose.  The police were actually called on one man who was surveying the cars in the parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r231971858-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>231971858</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Cheap but easy</t>
+  </si>
+  <si>
+    <t>This was a stay that was simple easy and cheap.  It was a Motel ^, so I wasn't expecting anything special in any ways.  They did allow pets, and security was a locked door at night, which individuals still found their way around, and a police car that drove past the parking lot from time to time.  So the stay wasn't overwhelmingly great. But for the price and the fact we had a smoking room, our car was never vandalized, pets were allowed, etc, it was worth the price.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r210925375-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>210925375</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>5 rooms</t>
+  </si>
+  <si>
+    <t>The man at the front desk was very hard to understand and rude. The hallways were very hot and smelt like dirty feet. Many people were coming in and out of their rooms, my husband swore it was a prostitute ring. Condoms were sold in the vending machine, right along side the soda machine our children tried to use(it wasn't working but the condom machine did!). In one of the rooms the sheets had a ring of blood on them and empty condom wrappers were discovered and in another room food crumbs were found in the sheets. Our room had no light bulbs in the lamps above the beds, we called the front desk but never received the light bulbs and eventually just gave up. Another of our rooms had filthy sheets and bathroom. They asked to switch rooms but were told none were available. Instead they just gave a new set of sheets that we had to change ourselves. The pool area was nice but was SO HOT because of the hot tub. The employee said they were not allowed to unlock the patio door for security reasons. My husband and I were walking our dogs in the grassy area of the parking lot and came across what my husband said were dope bags. There is definitely something fishy going on at this motel; prostitution, drugs, etc. We are Motel 6 fans and stay in them for almost every...The man at the front desk was very hard to understand and rude. The hallways were very hot and smelt like dirty feet. Many people were coming in and out of their rooms, my husband swore it was a prostitute ring. Condoms were sold in the vending machine, right along side the soda machine our children tried to use(it wasn't working but the condom machine did!). In one of the rooms the sheets had a ring of blood on them and empty condom wrappers were discovered and in another room food crumbs were found in the sheets. Our room had no light bulbs in the lamps above the beds, we called the front desk but never received the light bulbs and eventually just gave up. Another of our rooms had filthy sheets and bathroom. They asked to switch rooms but were told none were available. Instead they just gave a new set of sheets that we had to change ourselves. The pool area was nice but was SO HOT because of the hot tub. The employee said they were not allowed to unlock the patio door for security reasons. My husband and I were walking our dogs in the grassy area of the parking lot and came across what my husband said were dope bags. There is definitely something fishy going on at this motel; prostitution, drugs, etc. We are Motel 6 fans and stay in them for almost every trip we take but this particular Motel 6 is a fail and needs to be taken over by new management and employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>The man at the front desk was very hard to understand and rude. The hallways were very hot and smelt like dirty feet. Many people were coming in and out of their rooms, my husband swore it was a prostitute ring. Condoms were sold in the vending machine, right along side the soda machine our children tried to use(it wasn't working but the condom machine did!). In one of the rooms the sheets had a ring of blood on them and empty condom wrappers were discovered and in another room food crumbs were found in the sheets. Our room had no light bulbs in the lamps above the beds, we called the front desk but never received the light bulbs and eventually just gave up. Another of our rooms had filthy sheets and bathroom. They asked to switch rooms but were told none were available. Instead they just gave a new set of sheets that we had to change ourselves. The pool area was nice but was SO HOT because of the hot tub. The employee said they were not allowed to unlock the patio door for security reasons. My husband and I were walking our dogs in the grassy area of the parking lot and came across what my husband said were dope bags. There is definitely something fishy going on at this motel; prostitution, drugs, etc. We are Motel 6 fans and stay in them for almost every...The man at the front desk was very hard to understand and rude. The hallways were very hot and smelt like dirty feet. Many people were coming in and out of their rooms, my husband swore it was a prostitute ring. Condoms were sold in the vending machine, right along side the soda machine our children tried to use(it wasn't working but the condom machine did!). In one of the rooms the sheets had a ring of blood on them and empty condom wrappers were discovered and in another room food crumbs were found in the sheets. Our room had no light bulbs in the lamps above the beds, we called the front desk but never received the light bulbs and eventually just gave up. Another of our rooms had filthy sheets and bathroom. They asked to switch rooms but were told none were available. Instead they just gave a new set of sheets that we had to change ourselves. The pool area was nice but was SO HOT because of the hot tub. The employee said they were not allowed to unlock the patio door for security reasons. My husband and I were walking our dogs in the grassy area of the parking lot and came across what my husband said were dope bags. There is definitely something fishy going on at this motel; prostitution, drugs, etc. We are Motel 6 fans and stay in them for almost every trip we take but this particular Motel 6 is a fail and needs to be taken over by new management and employees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r198287556-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>198287556</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Worst motel ever!</t>
+  </si>
+  <si>
+    <t>Do not stay here!!! Checked into this hotel 3 pm Friday 3/21 traveling from houston to tulsa. Lady at front desk very rude and could not understand her. First room we booked reeked of smoke so asked when I asked to be moved we were told that impossible the rooms smelt because the first two floors were non smoking. Second room was ok at first until we found a dirty sock blood in bathroom. My wife went to go to store and saw a woman letting multiple men In and out of her room looked like a possible prostitution situation. Also noticed trash all over outside. We decided to change hotels when I asked for a refund the lady t the front desk argued with me and made me call the manager to refund room. As we were leaving my wife went to grab stuff out of room and found a condom wrapper on the bed. This was the WORST expierence  of any motel 6 I have ever had I will never return to this motel and I would not stay here!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Do not stay here!!! Checked into this hotel 3 pm Friday 3/21 traveling from houston to tulsa. Lady at front desk very rude and could not understand her. First room we booked reeked of smoke so asked when I asked to be moved we were told that impossible the rooms smelt because the first two floors were non smoking. Second room was ok at first until we found a dirty sock blood in bathroom. My wife went to go to store and saw a woman letting multiple men In and out of her room looked like a possible prostitution situation. Also noticed trash all over outside. We decided to change hotels when I asked for a refund the lady t the front desk argued with me and made me call the manager to refund room. As we were leaving my wife went to grab stuff out of room and found a condom wrapper on the bed. This was the WORST expierence  of any motel 6 I have ever had I will never return to this motel and I would not stay here!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r115666297-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>115666297</t>
+  </si>
+  <si>
+    <t>07/22/2011</t>
+  </si>
+  <si>
+    <t>In need of a redo, but good A/C</t>
+  </si>
+  <si>
+    <t>This hotel needs a decorating redo. The staff were friendly and the bed was excellent. It really could use a thorough cleaning top to bottom. The exercise room was CLOSED the entire three days we were there as well as several other rooms off the lobby. The hall smelled like a dirty toilet. Why weren't they open or repaired??? Loosing money there sadly. The A/C was super cold-like you could hang meat in there dispite the 100+ temps outside. It really only had one setting-Cold or Freezing! The place is OK, but I'd rather not stay here again.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r48572076-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>48572076</t>
+  </si>
+  <si>
+    <t>11/05/2009</t>
+  </si>
+  <si>
+    <t>Buisness trip.</t>
+  </si>
+  <si>
+    <t>overall it was  a very pleasent stay  staff was  very helpful and friendly, guided me  around  town and  helped me  find  way back to hotel when i got  lost.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r47428535-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>47428535</t>
+  </si>
+  <si>
+    <t>10/21/2009</t>
+  </si>
+  <si>
+    <t>if you like loud AC...</t>
+  </si>
+  <si>
+    <t>This was a convenient location for UT/OU game (close to the DART train), but that's about it.  The air conditioner was extremely loud, each time it recycled.  The rooms have apparently been remodeled recently, but they already feel as though they've been well-used.  Beds and bathroom were overall clean.  Breakfast (free) was good, with home-made waffles (points for this).  Staff was helpful, but just barely.  You get what you pay for...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r13467590-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>13467590</t>
+  </si>
+  <si>
+    <t>02/11/2008</t>
+  </si>
+  <si>
+    <t>Bad hotel</t>
+  </si>
+  <si>
+    <t>Poorly maintained and outdated hotel.  Stayed there only one night.  Got in late at night and could not wait to check out the next morning.  Staff was not friendly nor professional.  Room was dirty, dark and smelly.  The first room that I was given had a large bag of leftover dinner sitting on the counter from someone else.  The bedsheet and pillow cases were wrinkled, although the room seemed to have already been made up.  I was provided another room.  A little better, but below typical Country Inn standard.  The sink faucat was leaking, and toilet was running all night long.  Two out of five light bulbs in the room was burnt out.  Carpet was old and dirty.  Free breakfast was horrible - poor selection, danishes were stale and pre-cut in halves.   Dining room was dark (5 out of 17 light bulbs were burnt out and was not replaced).  Would not recommend for families especially with children.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>Poorly maintained and outdated hotel.  Stayed there only one night.  Got in late at night and could not wait to check out the next morning.  Staff was not friendly nor professional.  Room was dirty, dark and smelly.  The first room that I was given had a large bag of leftover dinner sitting on the counter from someone else.  The bedsheet and pillow cases were wrinkled, although the room seemed to have already been made up.  I was provided another room.  A little better, but below typical Country Inn standard.  The sink faucat was leaking, and toilet was running all night long.  Two out of five light bulbs in the room was burnt out.  Carpet was old and dirty.  Free breakfast was horrible - poor selection, danishes were stale and pre-cut in halves.   Dining room was dark (5 out of 17 light bulbs were burnt out and was not replaced).  Would not recommend for families especially with children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r6738165-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>6738165</t>
+  </si>
+  <si>
+    <t>02/02/2007</t>
+  </si>
+  <si>
+    <t>Great staff!  Comfortable rooms!  Good rate!</t>
+  </si>
+  <si>
+    <t>An ice storm caused me to stay over in Dallas, but I found the staff warm (unlike the outside temperature) and especially helpful in making me comfortable during my unexpected stay.  Having on-site laundry facilities helped, too, so I could wear clean clothes on my trip home.  The hotel had a continental breakfast with plenty of choices and the high speed internet access allowed me to get some work done while I was there.  When things thawed out a little, I made my way to the Galleria Mall nearby for some shopping before continuing home.  Overall, I can definitely recommend the hotel for someone looking for a friendly, affordable hotel with easy freeway access in North Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>An ice storm caused me to stay over in Dallas, but I found the staff warm (unlike the outside temperature) and especially helpful in making me comfortable during my unexpected stay.  Having on-site laundry facilities helped, too, so I could wear clean clothes on my trip home.  The hotel had a continental breakfast with plenty of choices and the high speed internet access allowed me to get some work done while I was there.  When things thawed out a little, I made my way to the Galleria Mall nearby for some shopping before continuing home.  Overall, I can definitely recommend the hotel for someone looking for a friendly, affordable hotel with easy freeway access in North Dallas.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +876,697 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_562.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_562.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>13bedbugz</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -186,6 +189,9 @@
 Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen...I am not a goody goody, in fact I worked in the adult field most of my life but I am first and foremost a mother and Grandmother.  I rented a room at the motel 6 that was considered the suite,  yes it is alot larger than the usual motel 6 rooms.  When I went to check in they told me the AC was broke down but getting fixed.  8 days and it was never fixed!  I told them 3 times not to give my key to anyone including my son,  and my key was given out 3 times!  I nearly had a heat stroke one night and had to go to another hotel,  I had alot of stuff with me and it was taking me alittle while to geet it loaded and the desk clerk demanded it be gone right away... within 30 minutes....they sure didnt rush to fix ac.big flashing sign in the front says POOL,  your not allowed to use the pooll  The other suite is rented out by the hour,  Baggies are all over the ground, the grass is not kept cut.    Partying all night in the courtyard.Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen   candy on top.... I videoed.  A man busted a beer bottle on the stairs and the glass sat there with me telling the maid 3 times for 2 hours... I finally cleaned it up.  Water was off for 2 days and then not hot,  My laptop was stolen there, my sons bike, andmy pillows were thrown in the trashMore</t>
   </si>
   <si>
+    <t>lspar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r363608227-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Meryl L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r362047980-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>The lobby, hall, elevator and room were very poorly maintained.  There was only 1 luggage cart and it was no where to be found upon move in.  The vending machines were out of order (I don't use them, but if they are there for the guests convenience, it is not very convenient if they don't work.  The drapes were hanging by only half their hooks.  The bathroom had two locations for toilet paper only one of which had a roll on it, with no extra roll anywhere in the room.  The facial tissue dispenser had no box of tissue in it.  The vanity had been painted (over the man made marble) and much of the paint was randomly scratched off.  The neighborhood is very scary.  We worried about our cars in the parking lot.  My daughter was approached while standing by her vehicle and asked if she wanted to purchase a laptop or a tablet!  There was a lot of vagrant type foot traffic in the parking lot - people wandering around without any seeming purpose.  The police were actually called on one man who was surveying the cars in the parking lot.More</t>
   </si>
   <si>
+    <t>pstee0072</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r231971858-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>ahoy777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r210925375-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>The man at the front desk was very hard to understand and rude. The hallways were very hot and smelt like dirty feet. Many people were coming in and out of their rooms, my husband swore it was a prostitute ring. Condoms were sold in the vending machine, right along side the soda machine our children tried to use(it wasn't working but the condom machine did!). In one of the rooms the sheets had a ring of blood on them and empty condom wrappers were discovered and in another room food crumbs were found in the sheets. Our room had no light bulbs in the lamps above the beds, we called the front desk but never received the light bulbs and eventually just gave up. Another of our rooms had filthy sheets and bathroom. They asked to switch rooms but were told none were available. Instead they just gave a new set of sheets that we had to change ourselves. The pool area was nice but was SO HOT because of the hot tub. The employee said they were not allowed to unlock the patio door for security reasons. My husband and I were walking our dogs in the grassy area of the parking lot and came across what my husband said were dope bags. There is definitely something fishy going on at this motel; prostitution, drugs, etc. We are Motel 6 fans and stay in them for almost every...The man at the front desk was very hard to understand and rude. The hallways were very hot and smelt like dirty feet. Many people were coming in and out of their rooms, my husband swore it was a prostitute ring. Condoms were sold in the vending machine, right along side the soda machine our children tried to use(it wasn't working but the condom machine did!). In one of the rooms the sheets had a ring of blood on them and empty condom wrappers were discovered and in another room food crumbs were found in the sheets. Our room had no light bulbs in the lamps above the beds, we called the front desk but never received the light bulbs and eventually just gave up. Another of our rooms had filthy sheets and bathroom. They asked to switch rooms but were told none were available. Instead they just gave a new set of sheets that we had to change ourselves. The pool area was nice but was SO HOT because of the hot tub. The employee said they were not allowed to unlock the patio door for security reasons. My husband and I were walking our dogs in the grassy area of the parking lot and came across what my husband said were dope bags. There is definitely something fishy going on at this motel; prostitution, drugs, etc. We are Motel 6 fans and stay in them for almost every trip we take but this particular Motel 6 is a fail and needs to be taken over by new management and employees.More</t>
   </si>
   <si>
+    <t>Jfd1984</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r198287556-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>Do not stay here!!! Checked into this hotel 3 pm Friday 3/21 traveling from houston to tulsa. Lady at front desk very rude and could not understand her. First room we booked reeked of smoke so asked when I asked to be moved we were told that impossible the rooms smelt because the first two floors were non smoking. Second room was ok at first until we found a dirty sock blood in bathroom. My wife went to go to store and saw a woman letting multiple men In and out of her room looked like a possible prostitution situation. Also noticed trash all over outside. We decided to change hotels when I asked for a refund the lady t the front desk argued with me and made me call the manager to refund room. As we were leaving my wife went to grab stuff out of room and found a condom wrapper on the bed. This was the WORST expierence  of any motel 6 I have ever had I will never return to this motel and I would not stay here!!!More</t>
   </si>
   <si>
+    <t>AirForceWife24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r115666297-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>kash24NewYork</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r48572076-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>irishmm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r47428535-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>This was a convenient location for UT/OU game (close to the DART train), but that's about it.  The air conditioner was extremely loud, each time it recycled.  The rooms have apparently been remodeled recently, but they already feel as though they've been well-used.  Beds and bathroom were overall clean.  Breakfast (free) was good, with home-made waffles (points for this).  Staff was helpful, but just barely.  You get what you pay for...</t>
   </si>
   <si>
+    <t>LeesSummitTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r13467590-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -358,6 +388,9 @@
   </si>
   <si>
     <t>Poorly maintained and outdated hotel.  Stayed there only one night.  Got in late at night and could not wait to check out the next morning.  Staff was not friendly nor professional.  Room was dirty, dark and smelly.  The first room that I was given had a large bag of leftover dinner sitting on the counter from someone else.  The bedsheet and pillow cases were wrinkled, although the room seemed to have already been made up.  I was provided another room.  A little better, but below typical Country Inn standard.  The sink faucat was leaking, and toilet was running all night long.  Two out of five light bulbs in the room was burnt out.  Carpet was old and dirty.  Free breakfast was horrible - poor selection, danishes were stale and pre-cut in halves.   Dining room was dark (5 out of 17 light bulbs were burnt out and was not replaced).  Would not recommend for families especially with children.More</t>
+  </si>
+  <si>
+    <t>TexTraveler22</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r6738165-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
@@ -880,43 +913,47 @@
       <c r="A2" t="n">
         <v>35597</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>119689</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -936,50 +973,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35597</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169321</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -993,50 +1034,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35597</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169322</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1054,50 +1099,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35597</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169323</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1117,50 +1166,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35597</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169324</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1184,41 +1237,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35597</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169325</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1247,50 +1304,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35597</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169326</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1310,50 +1371,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35597</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169327</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1377,50 +1442,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35597</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1444,50 +1513,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35597</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169329</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1511,41 +1584,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35597</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169330</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -1564,7 +1641,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_562.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_562.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>STR#</t>
   </si>
@@ -147,19 +147,74 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>13bedbugz</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r452197050-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>223632</t>
+  </si>
+  <si>
+    <t>452197050</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Dirty &amp; they nickel and dime you</t>
+  </si>
+  <si>
+    <t>Sheets looked gross and I couldn't tell if the stains were fresh additions to my maybe-washed sheets, or if they simply didn't come out in the latest cycle. This disgustingness greeted us, after I was already aggravated from the front desk experience.
+The thing that immediately irked me, occurred at check-in. When I initially looked for availability online, I searched for two queen beds for two adults and found a good deal. I didn't immediately book it so that I could discuss it with my husband. When I went back later to check the same date range &amp; reserve the room, I forgot to move the default # of people from 1 to 2 {after I received my confirmation I noticed the error, but thought nothing of it since the rates were the same}.
+When I checked in, the lady at the front desk asked for number of people, so I told her 2 adults. She explained that it'd be extra since my reservation was made for one.  Ummmm... ok. I explained how it happened and asked why I'd be getting charged more if the room was for the same two beds I'd originally reserved. She said they charged by the person. I was tired, lugging around a heavy bag &amp; not in the mood to further go into it, so I signed for the frivolous extra charge. I understand that this location is a personally owned franchise, but I...Sheets looked gross and I couldn't tell if the stains were fresh additions to my maybe-washed sheets, or if they simply didn't come out in the latest cycle. This disgustingness greeted us, after I was already aggravated from the front desk experience.The thing that immediately irked me, occurred at check-in. When I initially looked for availability online, I searched for two queen beds for two adults and found a good deal. I didn't immediately book it so that I could discuss it with my husband. When I went back later to check the same date range &amp; reserve the room, I forgot to move the default # of people from 1 to 2 {after I received my confirmation I noticed the error, but thought nothing of it since the rates were the same}.When I checked in, the lady at the front desk asked for number of people, so I told her 2 adults. She explained that it'd be extra since my reservation was made for one.  Ummmm... ok. I explained how it happened and asked why I'd be getting charged more if the room was for the same two beds I'd originally reserved. She said they charged by the person. I was tired, lugging around a heavy bag &amp; not in the mood to further go into it, so I signed for the frivolous extra charge. I understand that this location is a personally owned franchise, but I will be emailing and calling corporate in the morning. Businesses shouldn't greet their guests by nickel and diming them.P.S. - When taking a shower, I had to stand in over an inch of water. Gross. Oh, and there was a mystery stain dripped down the wall. I couldn't tell if it was blood, vomit or something else. If you need any condoms, they're available for purchase in their hallway vending machine, right in between the mouthwash and chips.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sheets looked gross and I couldn't tell if the stains were fresh additions to my maybe-washed sheets, or if they simply didn't come out in the latest cycle. This disgustingness greeted us, after I was already aggravated from the front desk experience.
+The thing that immediately irked me, occurred at check-in. When I initially looked for availability online, I searched for two queen beds for two adults and found a good deal. I didn't immediately book it so that I could discuss it with my husband. When I went back later to check the same date range &amp; reserve the room, I forgot to move the default # of people from 1 to 2 {after I received my confirmation I noticed the error, but thought nothing of it since the rates were the same}.
+When I checked in, the lady at the front desk asked for number of people, so I told her 2 adults. She explained that it'd be extra since my reservation was made for one.  Ummmm... ok. I explained how it happened and asked why I'd be getting charged more if the room was for the same two beds I'd originally reserved. She said they charged by the person. I was tired, lugging around a heavy bag &amp; not in the mood to further go into it, so I signed for the frivolous extra charge. I understand that this location is a personally owned franchise, but I...Sheets looked gross and I couldn't tell if the stains were fresh additions to my maybe-washed sheets, or if they simply didn't come out in the latest cycle. This disgustingness greeted us, after I was already aggravated from the front desk experience.The thing that immediately irked me, occurred at check-in. When I initially looked for availability online, I searched for two queen beds for two adults and found a good deal. I didn't immediately book it so that I could discuss it with my husband. When I went back later to check the same date range &amp; reserve the room, I forgot to move the default # of people from 1 to 2 {after I received my confirmation I noticed the error, but thought nothing of it since the rates were the same}.When I checked in, the lady at the front desk asked for number of people, so I told her 2 adults. She explained that it'd be extra since my reservation was made for one.  Ummmm... ok. I explained how it happened and asked why I'd be getting charged more if the room was for the same two beds I'd originally reserved. She said they charged by the person. I was tired, lugging around a heavy bag &amp; not in the mood to further go into it, so I signed for the frivolous extra charge. I understand that this location is a personally owned franchise, but I will be emailing and calling corporate in the morning. Businesses shouldn't greet their guests by nickel and diming them.P.S. - When taking a shower, I had to stand in over an inch of water. Gross. Oh, and there was a mystery stain dripped down the wall. I couldn't tell if it was blood, vomit or something else. If you need any condoms, they're available for purchase in their hallway vending machine, right in between the mouthwash and chips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r375135611-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>375135611</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here - dirty sheets</t>
+  </si>
+  <si>
+    <t>I only stayed one night at this Motel 6 while travelling thru. Poorly maintained but that's to be expected for the price. Very thin walls so you can hear what's going on in the room next door. The worst however is that the sheets were not changed since the last guest. Dirty and stained. Would not stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Dallas - North - Richardson, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>I only stayed one night at this Motel 6 while travelling thru. Poorly maintained but that's to be expected for the price. Very thin walls so you can hear what's going on in the room next door. The worst however is that the sheets were not changed since the last guest. Dirty and stained. Would not stay again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r371606361-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>223632</t>
   </si>
   <si>
     <t>371606361</t>
@@ -177,21 +232,12 @@
 Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen...I am not a goody goody, in fact I worked in the adult field most of my life but I am first and foremost a mother and Grandmother.  I rented a room at the motel 6 that was considered the suite,  yes it is alot larger than the usual motel 6 rooms.  When I went to check in they told me the AC was broke down but getting fixed.  8 days and it was never fixed!  I told them 3 times not to give my key to anyone including my son,  and my key was given out 3 times!  I nearly had a heat stroke one night and had to go to another hotel,  I had alot of stuff with me and it was taking me alittle while to geet it loaded and the desk clerk demanded it be gone right away... within 30 minutes....they sure didnt rush to fix ac.big flashing sign in the front says POOL,  your not allowed to use the pooll  The other suite is rented out by the hour,  Baggies are all over the ground, the grass is not kept cut.    Partying all night in the courtyard.Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen   candy on top.... I videoed.  A man busted a beer bottle on the stairs and the glass sat there with me telling the maid 3 times for 2 hours... I finally cleaned it up.  Water was off for 2 days and then not hot,  My laptop was stolen there, my sons bike, andmy pillows were thrown in the trashMoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>I am not a goody goody, in fact I worked in the adult field most of my life but I am first and foremost a mother and Grandmother.  I rented a room at the motel 6 that was considered the suite,  yes it is alot larger than the usual motel 6 rooms.  When I went to check in they told me the AC was broke down but getting fixed.  8 days and it was never fixed!  
 I told them 3 times not to give my key to anyone including my son,  and my key was given out 3 times!  I nearly had a heat stroke one night and had to go to another hotel,  I had alot of stuff with me and it was taking me alittle while to geet it loaded and the desk clerk demanded it be gone right away... within 30 minutes....they sure didnt rush to fix ac.
 big flashing sign in the front says POOL,  your not allowed to use the pooll  The other suite is rented out by the hour,  Baggies are all over the ground, the grass is not kept cut.    Partying all night in the courtyard.
 Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen...I am not a goody goody, in fact I worked in the adult field most of my life but I am first and foremost a mother and Grandmother.  I rented a room at the motel 6 that was considered the suite,  yes it is alot larger than the usual motel 6 rooms.  When I went to check in they told me the AC was broke down but getting fixed.  8 days and it was never fixed!  I told them 3 times not to give my key to anyone including my son,  and my key was given out 3 times!  I nearly had a heat stroke one night and had to go to another hotel,  I had alot of stuff with me and it was taking me alittle while to geet it loaded and the desk clerk demanded it be gone right away... within 30 minutes....they sure didnt rush to fix ac.big flashing sign in the front says POOL,  your not allowed to use the pooll  The other suite is rented out by the hour,  Baggies are all over the ground, the grass is not kept cut.    Partying all night in the courtyard.Here is the kicker one of their hired workers followed me down the road scaring the crud out of my trying to solicit me for my services. 8 days and not one day of maid service.t allThere was a trash can full of dirty needles with unopen   candy on top.... I videoed.  A man busted a beer bottle on the stairs and the glass sat there with me telling the maid 3 times for 2 hours... I finally cleaned it up.  Water was off for 2 days and then not hot,  My laptop was stolen there, my sons bike, andmy pillows were thrown in the trashMore</t>
   </si>
   <si>
-    <t>lspar</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r363608227-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -213,9 +259,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Meryl L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r362047980-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -234,7 +277,58 @@
     <t>The lobby, hall, elevator and room were very poorly maintained.  There was only 1 luggage cart and it was no where to be found upon move in.  The vending machines were out of order (I don't use them, but if they are there for the guests convenience, it is not very convenient if they don't work.  The drapes were hanging by only half their hooks.  The bathroom had two locations for toilet paper only one of which had a roll on it, with no extra roll anywhere in the room.  The facial tissue dispenser had no box of tissue in it.  The vanity had been painted (over the man made marble) and much of the paint was randomly scratched off.  The neighborhood is very scary.  We worried about our cars in the parking lot.  My daughter was approached while standing by her vehicle and asked if she wanted to purchase a laptop or a tablet!  There was a lot of vagrant type foot traffic in the parking lot - people wandering around without any seeming purpose.  The police were actually called on one man who was surveying the cars in the parking lot.More</t>
   </si>
   <si>
-    <t>pstee0072</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r307339526-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>307339526</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Disgusting!!</t>
+  </si>
+  <si>
+    <t>I reserved a room for my husband at the Motel 6 in Richardson, Texas for one night, Friday, Sept 4th.  He immediately called me and sent me a video once he arrived to the room to show me how dirty and disgusting it was.  Dirty wet towels on floor, molded and mildewed shower head amongst other things.  I thought Motel 6 had stepped up their game in recent years as far as being a quality, clean economy 2-star motel but apparently not.  I will NEVER stay at a Motel 6 again.   I understand a 2-star isn't fancy but it should absolutely be clean!!!  Horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - North - Richardson, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>I reserved a room for my husband at the Motel 6 in Richardson, Texas for one night, Friday, Sept 4th.  He immediately called me and sent me a video once he arrived to the room to show me how dirty and disgusting it was.  Dirty wet towels on floor, molded and mildewed shower head amongst other things.  I thought Motel 6 had stepped up their game in recent years as far as being a quality, clean economy 2-star motel but apparently not.  I will NEVER stay at a Motel 6 again.   I understand a 2-star isn't fancy but it should absolutely be clean!!!  Horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r233054224-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>233054224</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Two vagrants sleeping in staircase next to my door.  Broke back entry.  No alarm.Elevator out of service.Front desk clerk barely spoke English.Reported problem of vagrants, but front desk did not want to call police for fear of 'bad publicity'!Morning coffee disgusting."You pay for what you get!"NEVER, NEVER AGAINMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - North - Richardson, responded to this reviewResponded October 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2014</t>
+  </si>
+  <si>
+    <t>Two vagrants sleeping in staircase next to my door.  Broke back entry.  No alarm.Elevator out of service.Front desk clerk barely spoke English.Reported problem of vagrants, but front desk did not want to call police for fear of 'bad publicity'!Morning coffee disgusting."You pay for what you get!"NEVER, NEVER AGAINMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r231971858-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
@@ -258,9 +352,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>ahoy777</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r210925375-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,9 +373,6 @@
     <t>The man at the front desk was very hard to understand and rude. The hallways were very hot and smelt like dirty feet. Many people were coming in and out of their rooms, my husband swore it was a prostitute ring. Condoms were sold in the vending machine, right along side the soda machine our children tried to use(it wasn't working but the condom machine did!). In one of the rooms the sheets had a ring of blood on them and empty condom wrappers were discovered and in another room food crumbs were found in the sheets. Our room had no light bulbs in the lamps above the beds, we called the front desk but never received the light bulbs and eventually just gave up. Another of our rooms had filthy sheets and bathroom. They asked to switch rooms but were told none were available. Instead they just gave a new set of sheets that we had to change ourselves. The pool area was nice but was SO HOT because of the hot tub. The employee said they were not allowed to unlock the patio door for security reasons. My husband and I were walking our dogs in the grassy area of the parking lot and came across what my husband said were dope bags. There is definitely something fishy going on at this motel; prostitution, drugs, etc. We are Motel 6 fans and stay in them for almost every...The man at the front desk was very hard to understand and rude. The hallways were very hot and smelt like dirty feet. Many people were coming in and out of their rooms, my husband swore it was a prostitute ring. Condoms were sold in the vending machine, right along side the soda machine our children tried to use(it wasn't working but the condom machine did!). In one of the rooms the sheets had a ring of blood on them and empty condom wrappers were discovered and in another room food crumbs were found in the sheets. Our room had no light bulbs in the lamps above the beds, we called the front desk but never received the light bulbs and eventually just gave up. Another of our rooms had filthy sheets and bathroom. They asked to switch rooms but were told none were available. Instead they just gave a new set of sheets that we had to change ourselves. The pool area was nice but was SO HOT because of the hot tub. The employee said they were not allowed to unlock the patio door for security reasons. My husband and I were walking our dogs in the grassy area of the parking lot and came across what my husband said were dope bags. There is definitely something fishy going on at this motel; prostitution, drugs, etc. We are Motel 6 fans and stay in them for almost every trip we take but this particular Motel 6 is a fail and needs to be taken over by new management and employees.More</t>
   </si>
   <si>
-    <t>Jfd1984</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r198287556-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,7 +391,40 @@
     <t>Do not stay here!!! Checked into this hotel 3 pm Friday 3/21 traveling from houston to tulsa. Lady at front desk very rude and could not understand her. First room we booked reeked of smoke so asked when I asked to be moved we were told that impossible the rooms smelt because the first two floors were non smoking. Second room was ok at first until we found a dirty sock blood in bathroom. My wife went to go to store and saw a woman letting multiple men In and out of her room looked like a possible prostitution situation. Also noticed trash all over outside. We decided to change hotels when I asked for a refund the lady t the front desk argued with me and made me call the manager to refund room. As we were leaving my wife went to grab stuff out of room and found a condom wrapper on the bed. This was the WORST expierence  of any motel 6 I have ever had I will never return to this motel and I would not stay here!!!More</t>
   </si>
   <si>
-    <t>AirForceWife24</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r163126763-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>163126763</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>NOT IMPRESSED!!!</t>
+  </si>
+  <si>
+    <t>On arrival I looked across the street and saw a STRIP CLUB really?  Yes they did try to update but if you revamp please buy a new mattress as well.  When me and my husband lay down we rolled to the mild and the cover had cigarette holes in it, yuck!  I also agree with the other review that as AC was very loud.  Breakfast what breakfast they had coffee and that was it.  NEVER Motel 6 again!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r124443533-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>124443533</t>
+  </si>
+  <si>
+    <t>02/11/2012</t>
+  </si>
+  <si>
+    <t>Nice place, just not fancy.</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable.  The shower had great pressure and the water was nice and hot.  I'm used to having a sore back when I get up in the morning after staying in a motel.  This was a nice surprise.  The bed was very comfortable.  We chose this place because they did not add a fee for pets.  I will go back because it is a great place to sleep.  The staff is extremely friendly and helpful.  The only negative is someone upstairs was very noisy and it sounded like they were moving furniture at an hour when it could not be housekeeping staff.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r115666297-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
@@ -324,9 +445,6 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>kash24NewYork</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r48572076-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -345,12 +463,6 @@
     <t>October 2009</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>irishmm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r47428535-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -366,7 +478,40 @@
     <t>This was a convenient location for UT/OU game (close to the DART train), but that's about it.  The air conditioner was extremely loud, each time it recycled.  The rooms have apparently been remodeled recently, but they already feel as though they've been well-used.  Beds and bathroom were overall clean.  Breakfast (free) was good, with home-made waffles (points for this).  Staff was helpful, but just barely.  You get what you pay for...</t>
   </si>
   <si>
-    <t>LeesSummitTraveler</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r39862391-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>39862391</t>
+  </si>
+  <si>
+    <t>09/05/2009</t>
+  </si>
+  <si>
+    <t>Best Hotel Ever</t>
+  </si>
+  <si>
+    <t>The hotel was nice and clean. The staff really appreciate the business and costumer. I would recommend my friends to stay here.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r35368599-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>35368599</t>
+  </si>
+  <si>
+    <t>07/21/2009</t>
+  </si>
+  <si>
+    <t>Dirty rooms</t>
+  </si>
+  <si>
+    <t>As  as we walked  to the front doors of the hotel we saw shattered glass. Even thought  we were not sure after seeing this. We still decided to give it a chance. Which I regret we should have gone with our first instinct. The room we were given had stains on the wall all the way to the ceiling. The carpet was old and dirty with stains and pet hair. The towels in the restroom had yellow stains on them. Even the Chair in our room was dirty with stains on it. That not being bad enough their room doors don't close, we left the room and came back to see the door had not completely closed behind us, we didn't even use the card to open the door we just had to push it in. This made me feel even more unsafe in this hotel, anyone could have just walked in and taken my things. I DID NOT feel safe at this hotel we kept an eye out on the car all night.  The hotel really needs to get updated. The next morning I couldn't wait to get out of there. I do not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>As  as we walked  to the front doors of the hotel we saw shattered glass. Even thought  we were not sure after seeing this. We still decided to give it a chance. Which I regret we should have gone with our first instinct. The room we were given had stains on the wall all the way to the ceiling. The carpet was old and dirty with stains and pet hair. The towels in the restroom had yellow stains on them. Even the Chair in our room was dirty with stains on it. That not being bad enough their room doors don't close, we left the room and came back to see the door had not completely closed behind us, we didn't even use the card to open the door we just had to push it in. This made me feel even more unsafe in this hotel, anyone could have just walked in and taken my things. I DID NOT feel safe at this hotel we kept an eye out on the car all night.  The hotel really needs to get updated. The next morning I couldn't wait to get out of there. I do not recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r13467590-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
@@ -388,9 +533,6 @@
   </si>
   <si>
     <t>Poorly maintained and outdated hotel.  Stayed there only one night.  Got in late at night and could not wait to check out the next morning.  Staff was not friendly nor professional.  Room was dirty, dark and smelly.  The first room that I was given had a large bag of leftover dinner sitting on the counter from someone else.  The bedsheet and pillow cases were wrinkled, although the room seemed to have already been made up.  I was provided another room.  A little better, but below typical Country Inn standard.  The sink faucat was leaking, and toilet was running all night long.  Two out of five light bulbs in the room was burnt out.  Carpet was old and dirty.  Free breakfast was horrible - poor selection, danishes were stale and pre-cut in halves.   Dining room was dark (5 out of 17 light bulbs were burnt out and was not replaced).  Would not recommend for families especially with children.More</t>
-  </si>
-  <si>
-    <t>TexTraveler22</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223632-r6738165-Motel_6_Dallas_North_Richardson-Dallas_Texas.html</t>
@@ -913,114 +1055,100 @@
       <c r="A2" t="n">
         <v>35597</v>
       </c>
-      <c r="B2" t="n">
-        <v>119689</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35597</v>
       </c>
-      <c r="B3" t="n">
-        <v>169321</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1031,36 +1159,36 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35597</v>
       </c>
-      <c r="B4" t="n">
-        <v>169322</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>65</v>
@@ -1078,20 +1206,22 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1106,130 +1236,110 @@
       <c r="A5" t="n">
         <v>35597</v>
       </c>
-      <c r="B5" t="n">
-        <v>169323</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35597</v>
       </c>
-      <c r="B6" t="n">
-        <v>169324</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1237,167 +1347,155 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35597</v>
       </c>
-      <c r="B7" t="n">
-        <v>169325</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35597</v>
       </c>
-      <c r="B8" t="n">
-        <v>169326</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35597</v>
       </c>
-      <c r="B9" t="n">
-        <v>169327</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>101</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>102</v>
@@ -1412,7 +1510,7 @@
         <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
         <v>106</v>
@@ -1423,18 +1521,14 @@
       <c r="P9" t="n">
         <v>3</v>
       </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
         <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1449,47 +1543,43 @@
       <c r="A10" t="n">
         <v>35597</v>
       </c>
-      <c r="B10" t="n">
-        <v>169328</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>109</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>110</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>111</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>112</v>
-      </c>
-      <c r="L10" t="s">
-        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1498,10 +1588,10 @@
         <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1513,33 +1603,29 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35597</v>
       </c>
-      <c r="B11" t="n">
-        <v>169329</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>115</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>116</v>
@@ -1556,20 +1642,16 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>120</v>
-      </c>
-      <c r="O11" t="s">
-        <v>62</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1584,64 +1666,592 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35597</v>
       </c>
-      <c r="B12" t="n">
-        <v>169330</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
         <v>123</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>124</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>125</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>126</v>
       </c>
-      <c r="L12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35597</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
